--- a/user-center/b-end/01-disign/01-数据库定义书/DB.xlsx
+++ b/user-center/b-end/01-disign/01-数据库定义书/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3048" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>creator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,10 @@
   </si>
   <si>
     <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +624,7 @@
   <dimension ref="B3:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -854,7 +854,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>23</v>
@@ -883,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
@@ -912,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>22</v>
@@ -941,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>30</v>

--- a/user-center/b-end/01-disign/01-数据库定义书/DB.xlsx
+++ b/user-center/b-end/01-disign/01-数据库定义书/DB.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="4920" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="oauth_client_details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>物理名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,271 @@
   </si>
   <si>
     <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorized_grant_types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web_server_redirect_uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token_validity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh_token_validity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端ID密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{bcrypt}是加密 {noop}是不加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权码模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password,refresh_token 可用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端重定向uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的权限范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client的权限范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional_information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoapprove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值false(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须是JSON格式的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE oauth_client_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  client_id               varchar(255)                        NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  resource_ids            varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  client_secret           varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  scope                   varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  authorized_grant_types  varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  web_server_redirect_uri varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  authorities             varchar(255)                        NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  access_token_validity   int                                 NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refresh_token_validity  int                                 NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  create_time             timestamp DEFAULT CURRENT_TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  additional_information  text                                NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  autoapprove             int DEFAULT '0'                     NULL</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>-- auto-generated definition</t>
+  </si>
+  <si>
+    <t>CREATE TABLE user</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id            varchar(32) DEFAULT ''              NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '用户名',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password      varchar(255)                        NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '密码',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mail          varchar(30)                         NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '邮箱',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hand_portrait varchar(255)                        NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '头像',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  flag          char DEFAULT '0'                    NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '状态',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  creator       varchar(255)                        NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '创建人',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  create_date   timestamp DEFAULT CURRENT_TIMESTAMP NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  reviser       varchar(255)                        NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '修改人',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  update_date   timestamp DEFAULT CURRENT_TIMESTAMP NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ON UPDATE CURRENT_TIMESTAMP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CONSTRAINT user_user_name_uindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNIQUE (user_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  COMMENT '用户表';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  user_name     varchar(255)                       NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:P31"/>
+  <dimension ref="B3:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -686,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="2"/>
@@ -1065,7 +1331,9 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1082,7 +1350,9 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1099,7 +1369,9 @@
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1116,7 +1388,9 @@
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1133,7 +1407,9 @@
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1150,7 +1426,9 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1167,7 +1445,9 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1184,7 +1464,9 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1201,7 +1483,9 @@
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1218,7 +1502,9 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1235,7 +1521,9 @@
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1252,7 +1540,9 @@
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1268,6 +1558,455 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
